--- a/data/trans_camb/P16B01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,72</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,24; 6,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,81; 17,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,45; 17,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,54; 9,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,69; 5,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,93; 8,03</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,53%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,47; 13,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,85; 34,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,93; 29,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,28; 15,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,94; 11,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,19; 13,95</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,77</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,13; 14,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,82; -4,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,62; 14,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,74; 30,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,82; 8,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,17; 5,86</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,95%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,09; 27,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,56; -6,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,75; 29,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,07; 61,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,48; 15,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,05; 10,07</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,85</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,74; 11,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,98; -3,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,46; 14,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,01; 8,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,99; 8,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,0; -2,88</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,95%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,1; 20,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,77; -5,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,12; 22,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,2; 13,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,35; 12,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,56; -4,48</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,68</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,47; 21,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,17; -1,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,09; 18,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,91; 11,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,07; 12,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,46; -0,51</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,62%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,29; 41,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,65; -5,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,77; 29,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,29; 15,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,61; 20,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,88; -1,48</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,66</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,44</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,42; 11,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,73; 19,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,5; 11,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,71; 15,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,71; 4,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,3; 9,75</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,03%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,79%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,12%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,48%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,06; 16,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,34; 28,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,25; 15,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,59; 20,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,94; 5,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,07; 12,71</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,93</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,37</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,84</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 19,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,38; 13,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,53; 30,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,43; 6,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,11; 21,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,3; 3,72</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,7%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,15%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 24,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,1; 16,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,47; 46,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,58; 8,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,74; 28,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,43; 4,46</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,67</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 2,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,22; -5,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; 7,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,43; 2,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; 2,48</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,38; -4,52</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,93%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,39%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,75; 2,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,68; -8,05</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; 10,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,01; 3,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 3,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,36; -6,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>17,93</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-12,37</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,0</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-3,64</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 19,54</t>
+          <t>-2,91; 24,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 13,36</t>
+          <t>-24,55; 12,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,53; 30,6</t>
+          <t>2,28; 33,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 6,27</t>
+          <t>-22,27; 21,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,11; 21,8</t>
+          <t>4,12; 24,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 3,72</t>
+          <t>-18,69; 9,98</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>-6,55%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-15,7%</t>
+          <t>-1,74%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-8,15%</t>
+          <t>-4,38%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,71; 24,89</t>
+          <t>-0,72; 34,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 16,77</t>
+          <t>-27,16; 15,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>7,47; 46,25</t>
+          <t>3,09; 53,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 8,08</t>
+          <t>-26,46; 32,27</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,74; 28,88</t>
+          <t>4,85; 33,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 4,46</t>
+          <t>-20,97; 13,51</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-14,98</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>18,11</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-20,75</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-10,67</t>
+          <t>-9,64</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 2,27</t>
+          <t>-0,61; 26,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-24,22; -5,84</t>
+          <t>-5,16; 23,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 7,23</t>
+          <t>0,0; 43,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 2,42</t>
+          <t>-46,83; 8,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 2,48</t>
+          <t>2,04; 24,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,38; -4,52</t>
+          <t>-24,74; 6,17</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-7,65%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-19,93%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,14%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>-11,36%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-0,48; 37,72</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 32,39</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 86,36</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-52,89; 10,19</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 33,78</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-27,77; 7,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-5,75</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-14,98</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-6,68</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-10,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-13,8; 2,27</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-24,22; -5,84</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 7,23</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-14,43; 2,42</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-9,03; 2,48</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-16,38; -4,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-7,65%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-19,93%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-1,4%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-9,14%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-4,67%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-14,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-17,75; 2,86</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-30,68; -8,05</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-11,42; 10,52</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-19,01; 3,34</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-11,76; 3,42</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-21,36; -6,41</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 6,79</t>
+          <t>-38,78; 5,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 17,13</t>
+          <t>-35,56; 17,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 17,19</t>
+          <t>-26,53; 15,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 9,62</t>
+          <t>-34,68; 10,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 5,89</t>
+          <t>-24,96; 5,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 8,03</t>
+          <t>-23,98; 8,98</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 13,37</t>
+          <t>-55,27; 12,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,85; 34,4</t>
+          <t>-51,92; 35,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 29,99</t>
+          <t>-32,51; 25,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 15,51</t>
+          <t>-42,08; 19,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 11,28</t>
+          <t>-34,73; 9,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 13,95</t>
+          <t>-34,78; 14,9</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 14,27</t>
+          <t>-30,53; 10,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-45,82; -4,18</t>
+          <t>-46,94; -4,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 14,53</t>
+          <t>-22,93; 17,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 30,73</t>
+          <t>-8,41; 31,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 8,69</t>
+          <t>-18,32; 9,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 5,86</t>
+          <t>-22,19; 7,22</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,09; 27,73</t>
+          <t>-37,69; 18,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,56; -6,5</t>
+          <t>-58,86; -7,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 29,54</t>
+          <t>-32,02; 31,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 61,13</t>
+          <t>-11,3; 69,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 15,19</t>
+          <t>-26,06; 15,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 10,07</t>
+          <t>-30,6; 13,86</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 11,59</t>
+          <t>-27,5; 11,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-42,98; -3,44</t>
+          <t>-43,21; -3,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 14,18</t>
+          <t>-23,93; 15,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 8,57</t>
+          <t>-27,4; 8,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 8,21</t>
+          <t>-19,7; 7,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,0; -2,88</t>
+          <t>-30,38; -4,17</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 20,27</t>
+          <t>-33,19; 18,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,77; -5,93</t>
+          <t>-52,85; -5,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 22,93</t>
+          <t>-29,19; 24,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 13,61</t>
+          <t>-35,1; 12,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 12,21</t>
+          <t>-24,93; 10,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,56; -4,48</t>
+          <t>-38,4; -5,98</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 21,54</t>
+          <t>-26,24; 24,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-51,17; -1,93</t>
+          <t>-54,79; -1,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 18,18</t>
+          <t>-29,3; 14,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 11,14</t>
+          <t>-37,53; 9,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 12,29</t>
+          <t>-22,32; 12,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,46; -0,51</t>
+          <t>-38,12; -2,63</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,29; 41,57</t>
+          <t>-34,0; 45,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,65; -5,62</t>
+          <t>-68,75; -4,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 29,9</t>
+          <t>-34,95; 25,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 15,04</t>
+          <t>-43,0; 17,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 20,8</t>
+          <t>-27,46; 21,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,88; -1,48</t>
+          <t>-47,75; -5,21</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 11,97</t>
+          <t>-28,05; 11,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 19,54</t>
+          <t>-25,3; 15,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 11,63</t>
+          <t>-33,91; 11,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 15,01</t>
+          <t>-27,06; 14,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 4,73</t>
+          <t>-26,21; 5,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 9,75</t>
+          <t>-18,98; 9,23</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 16,28</t>
+          <t>-31,8; 15,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 28,24</t>
+          <t>-26,82; 20,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 15,79</t>
+          <t>-36,93; 15,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 20,81</t>
+          <t>-29,86; 19,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 5,45</t>
+          <t>-29,37; 7,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,07; 12,71</t>
+          <t>-21,26; 11,84</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 24,97</t>
+          <t>-0,87; 23,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 12,68</t>
+          <t>-26,81; 11,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,28; 33,95</t>
+          <t>2,85; 34,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 21,8</t>
+          <t>-23,67; 18,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,12; 24,34</t>
+          <t>3,42; 24,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 9,98</t>
+          <t>-18,26; 10,13</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 34,27</t>
+          <t>-0,55; 32,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,16; 15,82</t>
+          <t>-28,72; 15,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>3,09; 53,33</t>
+          <t>4,1; 56,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 32,27</t>
+          <t>-27,57; 27,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,85; 33,58</t>
+          <t>4,04; 33,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 13,51</t>
+          <t>-21,44; 12,9</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 26,47</t>
+          <t>-0,47; 25,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 23,05</t>
+          <t>-5,01; 23,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,39</t>
+          <t>0,23; 44,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-46,83; 8,57</t>
+          <t>-47,4; 11,5</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,04; 24,68</t>
+          <t>3,0; 25,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 6,17</t>
+          <t>-25,87; 7,2</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 37,72</t>
+          <t>-0,4; 36,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 32,39</t>
+          <t>-3,69; 32,22</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,36</t>
+          <t>0,44; 84,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-52,89; 10,19</t>
+          <t>-54,95; 15,87</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>2,19; 33,78</t>
+          <t>3,33; 35,51</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 7,95</t>
+          <t>-28,92; 8,85</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 2,27</t>
+          <t>-13,35; 2,1</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-24,22; -5,84</t>
+          <t>-23,84; -6,36</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 7,23</t>
+          <t>-9,07; 7,1</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 2,42</t>
+          <t>-15,14; 1,71</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 2,48</t>
+          <t>-8,93; 1,89</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-16,38; -4,52</t>
+          <t>-16,66; -5,09</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 2,86</t>
+          <t>-17,31; 2,88</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-30,68; -8,05</t>
+          <t>-30,02; -9,11</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 10,52</t>
+          <t>-11,87; 10,38</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 3,34</t>
+          <t>-19,95; 2,21</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 3,42</t>
+          <t>-11,52; 2,7</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -6,41</t>
+          <t>-21,49; -7,03</t>
         </is>
       </c>
     </row>
